--- a/src/merchant.xlsx
+++ b/src/merchant.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve">merchant reference</t>
   </si>
@@ -60,6 +60,12 @@
     <t xml:space="preserve">ACC5</t>
   </si>
   <si>
+    <t xml:space="preserve">ID6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACC6</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -70,6 +76,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ID6</t>
+  </si>
+  <si>
+    <t>ACC6</t>
   </si>
 </sst>
 </file>
@@ -223,10 +238,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -292,6 +307,17 @@
         <v>11</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
@@ -305,7 +331,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E2"/>
+  <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -313,16 +339,30 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/merchant.xlsx
+++ b/src/merchant.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t xml:space="preserve">merchant reference</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>ACC6</t>
+  </si>
+  <si>
+    <t>ccr approval code</t>
+  </si>
+  <si>
+    <t>ticket id</t>
+  </si>
+  <si>
+    <t>ccr accounts</t>
   </si>
 </sst>
 </file>
@@ -331,12 +340,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
         <v>14</v>

--- a/src/merchant.xlsx
+++ b/src/merchant.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="inputfile" r:id="rId2" sheetId="1" state="visible"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve">merchant reference</t>
   </si>
@@ -66,6 +66,18 @@
     <t xml:space="preserve">ACC6</t>
   </si>
   <si>
+    <t>ccr approval code</t>
+  </si>
+  <si>
+    <t>ticket id</t>
+  </si>
+  <si>
+    <t>ccr accounts</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -73,27 +85,6 @@
   </si>
   <si>
     <t>ACC5</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>ID6</t>
-  </si>
-  <si>
-    <t>ACC6</t>
-  </si>
-  <si>
-    <t>ccr approval code</t>
-  </si>
-  <si>
-    <t>ticket id</t>
-  </si>
-  <si>
-    <t>ccr accounts</t>
   </si>
 </sst>
 </file>
@@ -194,10 +185,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A7" activeCellId="0" pane="topLeft" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -231,6 +222,16 @@
         <v>4</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
@@ -249,7 +250,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -340,7 +341,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -348,13 +349,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
@@ -362,29 +363,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
         <v>17</v>
       </c>
     </row>
